--- a/Code/Results/Cases/Case_9_23/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_23/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.9383032492602</v>
+        <v>12.50971211828601</v>
       </c>
       <c r="C2">
-        <v>6.353232320912</v>
+        <v>6.355193840306053</v>
       </c>
       <c r="D2">
-        <v>2.844853889323233</v>
+        <v>3.363985592396852</v>
       </c>
       <c r="E2">
-        <v>6.508206265043122</v>
+        <v>6.490121764356339</v>
       </c>
       <c r="F2">
-        <v>34.71185659708397</v>
+        <v>31.50021040197297</v>
       </c>
       <c r="G2">
-        <v>47.01723493307963</v>
+        <v>41.78261096191607</v>
       </c>
       <c r="H2">
-        <v>4.765600969617676</v>
+        <v>4.425719391434954</v>
       </c>
       <c r="I2">
-        <v>5.378247749732268</v>
+        <v>4.950608781023363</v>
       </c>
       <c r="J2">
-        <v>14.96237545998155</v>
+        <v>13.60604249161216</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.026416413667453</v>
+        <v>17.07145096188956</v>
       </c>
       <c r="M2">
-        <v>10.07902121538132</v>
+        <v>16.74254525417899</v>
       </c>
       <c r="N2">
-        <v>5.526213343159994</v>
+        <v>5.872683958073937</v>
       </c>
       <c r="O2">
-        <v>9.484236013199336</v>
+        <v>10.40689899928859</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>6.049724274573644</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>9.522154832858904</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.17810950701086</v>
+        <v>11.75310107769187</v>
       </c>
       <c r="C3">
-        <v>6.119177776568609</v>
+        <v>6.004956104127008</v>
       </c>
       <c r="D3">
-        <v>2.752605465389941</v>
+        <v>3.238118557811979</v>
       </c>
       <c r="E3">
-        <v>6.372120764174628</v>
+        <v>6.37605735175699</v>
       </c>
       <c r="F3">
-        <v>34.01103057567574</v>
+        <v>31.06775333415922</v>
       </c>
       <c r="G3">
-        <v>45.90290647343627</v>
+        <v>41.21067638907063</v>
       </c>
       <c r="H3">
-        <v>5.002693878326419</v>
+        <v>4.639715877032613</v>
       </c>
       <c r="I3">
-        <v>5.579613427283002</v>
+        <v>5.124621188119178</v>
       </c>
       <c r="J3">
-        <v>14.80834597944724</v>
+        <v>13.49453111813611</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>5.962851047088223</v>
+        <v>17.05624464224789</v>
       </c>
       <c r="M3">
-        <v>9.459602956128107</v>
+        <v>16.60285473829767</v>
       </c>
       <c r="N3">
-        <v>5.408909936114874</v>
+        <v>5.824747654754076</v>
       </c>
       <c r="O3">
-        <v>9.166942529152047</v>
+        <v>9.770469329057072</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>5.9176925662827</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.186694905666728</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.68751927334515</v>
+        <v>11.26269834999897</v>
       </c>
       <c r="C4">
-        <v>5.971823059697186</v>
+        <v>5.783403169541264</v>
       </c>
       <c r="D4">
-        <v>2.695993943461537</v>
+        <v>3.160344055764708</v>
       </c>
       <c r="E4">
-        <v>6.286068911580392</v>
+        <v>6.303990187789142</v>
       </c>
       <c r="F4">
-        <v>33.57425494583729</v>
+        <v>30.79897639456989</v>
       </c>
       <c r="G4">
-        <v>45.20434423179738</v>
+        <v>40.85677973584458</v>
       </c>
       <c r="H4">
-        <v>5.153445845111861</v>
+        <v>4.775886890812764</v>
       </c>
       <c r="I4">
-        <v>5.708143335662086</v>
+        <v>5.235991422926197</v>
       </c>
       <c r="J4">
-        <v>14.713456123876</v>
+        <v>13.42416105405681</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>5.922139788462506</v>
+        <v>17.04058500458509</v>
       </c>
       <c r="M4">
-        <v>9.058634300949352</v>
+        <v>16.52914252131428</v>
       </c>
       <c r="N4">
-        <v>5.336494851207743</v>
+        <v>5.793916700249653</v>
       </c>
       <c r="O4">
-        <v>8.968093061844653</v>
+        <v>9.358530346561215</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>5.836368423176727</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>8.975789964236048</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.47942395818635</v>
+        <v>11.054345460829</v>
       </c>
       <c r="C5">
-        <v>5.914739354512256</v>
+        <v>5.697547651232642</v>
       </c>
       <c r="D5">
-        <v>2.675853344843147</v>
+        <v>3.131163372131599</v>
       </c>
       <c r="E5">
-        <v>6.249469527979175</v>
+        <v>6.273364000833268</v>
       </c>
       <c r="F5">
-        <v>33.37530864757927</v>
+        <v>30.67219611098982</v>
       </c>
       <c r="G5">
-        <v>44.88251615882535</v>
+        <v>40.68377705615566</v>
       </c>
       <c r="H5">
-        <v>5.216696317635136</v>
+        <v>4.833028271689069</v>
       </c>
       <c r="I5">
-        <v>5.764006466902611</v>
+        <v>5.285069770739866</v>
       </c>
       <c r="J5">
-        <v>14.66806776974769</v>
+        <v>13.38925134146424</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>5.904097088442351</v>
+        <v>17.0214500337369</v>
       </c>
       <c r="M5">
-        <v>8.891814975279816</v>
+        <v>16.49442848293408</v>
       </c>
       <c r="N5">
-        <v>5.308654553332654</v>
+        <v>5.780227311026353</v>
       </c>
       <c r="O5">
-        <v>8.886880319558982</v>
+        <v>9.186920418491948</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>5.804716616358585</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>8.889358428885076</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.44169888537571</v>
+        <v>11.01681351484981</v>
       </c>
       <c r="C6">
-        <v>5.909994432529096</v>
+        <v>5.690585789280449</v>
       </c>
       <c r="D6">
-        <v>2.676056900436986</v>
+        <v>3.129485154178103</v>
       </c>
       <c r="E6">
-        <v>6.242239080813845</v>
+        <v>6.267328506634154</v>
       </c>
       <c r="F6">
-        <v>33.31834340312901</v>
+        <v>30.63093185509248</v>
       </c>
       <c r="G6">
-        <v>44.78749870424728</v>
+        <v>40.62059864558343</v>
       </c>
       <c r="H6">
-        <v>5.227884033800959</v>
+        <v>4.843117916790836</v>
       </c>
       <c r="I6">
-        <v>5.776189949881467</v>
+        <v>5.296523060190824</v>
       </c>
       <c r="J6">
-        <v>14.65238523722216</v>
+        <v>13.37637706299651</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5.899821544478906</v>
+        <v>17.00456102564112</v>
       </c>
       <c r="M6">
-        <v>8.865951522927034</v>
+        <v>16.47935679334826</v>
       </c>
       <c r="N6">
-        <v>5.306167920862716</v>
+        <v>5.77699261057604</v>
       </c>
       <c r="O6">
-        <v>8.874238293541858</v>
+        <v>9.160004833836238</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>5.801325834807926</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>8.875730255892872</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.67717353750384</v>
+        <v>11.25424414790709</v>
       </c>
       <c r="C7">
-        <v>5.983983040686652</v>
+        <v>5.797836829823765</v>
       </c>
       <c r="D7">
-        <v>2.705276481906585</v>
+        <v>3.175444667446512</v>
       </c>
       <c r="E7">
-        <v>6.28256158791064</v>
+        <v>6.301961660266532</v>
       </c>
       <c r="F7">
-        <v>33.50695128852947</v>
+        <v>30.71228077574465</v>
       </c>
       <c r="G7">
-        <v>45.08795845478112</v>
+        <v>40.80147691294466</v>
       </c>
       <c r="H7">
-        <v>5.155922443838723</v>
+        <v>4.778812362469115</v>
       </c>
       <c r="I7">
-        <v>5.716402869695304</v>
+        <v>5.245904125319156</v>
       </c>
       <c r="J7">
-        <v>14.69072065693626</v>
+        <v>13.35592508661158</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>5.918506283459934</v>
+        <v>16.98660974183091</v>
       </c>
       <c r="M7">
-        <v>9.06214787620706</v>
+        <v>16.4898444798748</v>
       </c>
       <c r="N7">
-        <v>5.341917822606557</v>
+        <v>5.790335559894669</v>
       </c>
       <c r="O7">
-        <v>8.969405627613405</v>
+        <v>9.359824032774581</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>5.841386514299783</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>8.977603564782775</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.67179481333622</v>
+        <v>12.24924345841108</v>
       </c>
       <c r="C8">
-        <v>6.289838952090104</v>
+        <v>6.247468480583704</v>
       </c>
       <c r="D8">
-        <v>2.825147294986822</v>
+        <v>3.353757030346208</v>
       </c>
       <c r="E8">
-        <v>6.45795604223891</v>
+        <v>6.450970935249933</v>
       </c>
       <c r="F8">
-        <v>34.38857310983179</v>
+        <v>31.18370492489535</v>
       </c>
       <c r="G8">
-        <v>46.4925928243571</v>
+        <v>41.59921051449363</v>
       </c>
       <c r="H8">
-        <v>4.848347473700776</v>
+        <v>4.50258975092732</v>
       </c>
       <c r="I8">
-        <v>5.456147603625061</v>
+        <v>5.022616681291081</v>
       </c>
       <c r="J8">
-        <v>14.88063738707567</v>
+        <v>13.38561193518336</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.00050523815553</v>
+        <v>16.96883794461742</v>
       </c>
       <c r="M8">
-        <v>9.876798212700033</v>
+        <v>16.61300737233149</v>
       </c>
       <c r="N8">
-        <v>5.493328039876828</v>
+        <v>5.850543894975266</v>
       </c>
       <c r="O8">
-        <v>9.378727938002914</v>
+        <v>10.19356913135364</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6.012061356849196</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>9.412866416087743</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.44162283124797</v>
+        <v>14.00007628163081</v>
       </c>
       <c r="C9">
-        <v>6.838843275612709</v>
+        <v>7.058540511535483</v>
       </c>
       <c r="D9">
-        <v>3.04329353669518</v>
+        <v>3.657426303909043</v>
       </c>
       <c r="E9">
-        <v>6.78697108253049</v>
+        <v>6.727880150204961</v>
       </c>
       <c r="F9">
-        <v>36.17013962538507</v>
+        <v>32.28512069864172</v>
       </c>
       <c r="G9">
-        <v>49.31272484586508</v>
+        <v>43.15128597318685</v>
       </c>
       <c r="H9">
-        <v>4.282557406252498</v>
+        <v>3.992980353735764</v>
       </c>
       <c r="I9">
-        <v>4.971495039534135</v>
+        <v>4.603566183139065</v>
       </c>
       <c r="J9">
-        <v>15.28824117617602</v>
+        <v>13.63692581481306</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.153885496056818</v>
+        <v>17.00668743930841</v>
       </c>
       <c r="M9">
-        <v>11.30114414997178</v>
+        <v>17.04258090821772</v>
       </c>
       <c r="N9">
-        <v>5.776288538131228</v>
+        <v>5.965069804251594</v>
       </c>
       <c r="O9">
-        <v>10.14150003167479</v>
+        <v>11.65705756005761</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>6.333266158523204</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>10.21641832086229</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.61152414571238</v>
+        <v>15.15942228973988</v>
       </c>
       <c r="C10">
-        <v>7.25296009315757</v>
+        <v>7.633905262166101</v>
       </c>
       <c r="D10">
-        <v>3.203744114535398</v>
+        <v>3.90292918749806</v>
       </c>
       <c r="E10">
-        <v>6.95274511173571</v>
+        <v>6.86843320506854</v>
       </c>
       <c r="F10">
-        <v>37.11515292416613</v>
+        <v>32.66124159365202</v>
       </c>
       <c r="G10">
-        <v>50.78615545391858</v>
+        <v>44.10185326222808</v>
       </c>
       <c r="H10">
-        <v>3.915669755295391</v>
+        <v>3.667960658008153</v>
       </c>
       <c r="I10">
-        <v>4.64895453037419</v>
+        <v>4.330227422965184</v>
       </c>
       <c r="J10">
-        <v>15.47977210096377</v>
+        <v>13.47268863913579</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.229669505427993</v>
+        <v>16.79769691044794</v>
       </c>
       <c r="M10">
-        <v>12.26337910374675</v>
+        <v>17.20921488306712</v>
       </c>
       <c r="N10">
-        <v>5.932742355253687</v>
+        <v>6.019026643187618</v>
       </c>
       <c r="O10">
-        <v>10.63691022989527</v>
+        <v>12.63410430282488</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>6.512991665952518</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>10.7385271949681</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.05521065391198</v>
+        <v>15.65088795298244</v>
       </c>
       <c r="C11">
-        <v>7.679572494453586</v>
+        <v>8.102994588869212</v>
       </c>
       <c r="D11">
-        <v>3.267648994251898</v>
+        <v>3.992610740158003</v>
       </c>
       <c r="E11">
-        <v>6.548837903660107</v>
+        <v>6.503767139761905</v>
       </c>
       <c r="F11">
-        <v>34.95967195993926</v>
+        <v>30.52651371949328</v>
       </c>
       <c r="G11">
-        <v>47.37146685854607</v>
+        <v>41.72365731139062</v>
       </c>
       <c r="H11">
-        <v>4.439872556222175</v>
+        <v>4.234169582349416</v>
       </c>
       <c r="I11">
-        <v>4.57893838785391</v>
+        <v>4.277530185921295</v>
       </c>
       <c r="J11">
-        <v>14.72796000355311</v>
+        <v>12.38454640858869</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.071149255447983</v>
+        <v>15.59880583977574</v>
       </c>
       <c r="M11">
-        <v>12.80112017706589</v>
+        <v>16.18758204359764</v>
       </c>
       <c r="N11">
-        <v>5.588004873805064</v>
+        <v>5.92283907992255</v>
       </c>
       <c r="O11">
-        <v>10.51628753123837</v>
+        <v>13.13512308783092</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>6.124856554670237</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>10.61646869908969</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.19865928226299</v>
+        <v>15.83439847516622</v>
       </c>
       <c r="C12">
-        <v>7.97342921227579</v>
+        <v>8.378105454890921</v>
       </c>
       <c r="D12">
-        <v>3.271953713217666</v>
+        <v>3.980424426884213</v>
       </c>
       <c r="E12">
-        <v>6.270878593506985</v>
+        <v>6.254907921584954</v>
       </c>
       <c r="F12">
-        <v>33.03691530501455</v>
+        <v>28.83517517170621</v>
       </c>
       <c r="G12">
-        <v>44.33615665009224</v>
+        <v>39.49292750939469</v>
       </c>
       <c r="H12">
-        <v>5.421498478194206</v>
+        <v>5.253378884518221</v>
       </c>
       <c r="I12">
-        <v>4.568794973904827</v>
+        <v>4.268703475630453</v>
       </c>
       <c r="J12">
-        <v>14.0935783744018</v>
+        <v>11.73615332565075</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>5.995568179933762</v>
+        <v>14.77433759578772</v>
       </c>
       <c r="M12">
-        <v>13.05632732954415</v>
+        <v>15.39613928218361</v>
       </c>
       <c r="N12">
-        <v>5.275400394411718</v>
+        <v>5.902194732414827</v>
       </c>
       <c r="O12">
-        <v>10.30151157362144</v>
+        <v>13.35980830061289</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>5.769138802421377</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>10.39325507242097</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.11535376374998</v>
+        <v>15.78819548749303</v>
       </c>
       <c r="C13">
-        <v>8.201407071763086</v>
+        <v>8.561868430655045</v>
       </c>
       <c r="D13">
-        <v>3.243285206791059</v>
+        <v>3.885763809025457</v>
       </c>
       <c r="E13">
-        <v>6.077296174777599</v>
+        <v>6.086895593569904</v>
       </c>
       <c r="F13">
-        <v>31.07125678316048</v>
+        <v>27.35033016119752</v>
       </c>
       <c r="G13">
-        <v>41.22320958170126</v>
+        <v>36.999563992006</v>
       </c>
       <c r="H13">
-        <v>6.603576445480278</v>
+        <v>6.458172575866461</v>
       </c>
       <c r="I13">
-        <v>4.616088701874579</v>
+        <v>4.306045759742222</v>
       </c>
       <c r="J13">
-        <v>13.47839650992544</v>
+        <v>11.39650089939854</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>5.974369081154697</v>
+        <v>14.14512855923939</v>
       </c>
       <c r="M13">
-        <v>13.12421705518184</v>
+        <v>14.72428451037494</v>
       </c>
       <c r="N13">
-        <v>4.978627131285122</v>
+        <v>5.930503365473968</v>
       </c>
       <c r="O13">
-        <v>10.00052503294615</v>
+        <v>13.40106185683968</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5.425922932454612</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>10.07555703651357</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.95169439739278</v>
+        <v>15.64990554254638</v>
       </c>
       <c r="C14">
-        <v>8.341088147775379</v>
+        <v>8.65815200677724</v>
       </c>
       <c r="D14">
-        <v>3.210066875700565</v>
+        <v>3.784634725413529</v>
       </c>
       <c r="E14">
-        <v>5.998485748058925</v>
+        <v>6.025777461250414</v>
       </c>
       <c r="F14">
-        <v>29.66632487749018</v>
+        <v>26.38695636066413</v>
       </c>
       <c r="G14">
-        <v>38.98776581736293</v>
+        <v>35.13550232861417</v>
       </c>
       <c r="H14">
-        <v>7.49922537821361</v>
+        <v>7.363637052658949</v>
       </c>
       <c r="I14">
-        <v>4.677148663119681</v>
+        <v>4.355641164878197</v>
       </c>
       <c r="J14">
-        <v>13.05615153663303</v>
+        <v>11.26866295733835</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.992824270892023</v>
+        <v>13.77887307414255</v>
       </c>
       <c r="M14">
-        <v>13.08978677792201</v>
+        <v>14.30710335528978</v>
       </c>
       <c r="N14">
-        <v>4.785630664993835</v>
+        <v>5.977711633494756</v>
       </c>
       <c r="O14">
-        <v>9.748880122262902</v>
+        <v>13.34890852357478</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.19977080323924</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>9.80818846472569</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.86057970559133</v>
+        <v>15.56470701068631</v>
       </c>
       <c r="C15">
-        <v>8.364143061068289</v>
+        <v>8.668384738098164</v>
       </c>
       <c r="D15">
-        <v>3.198462719416564</v>
+        <v>3.747004138288543</v>
       </c>
       <c r="E15">
-        <v>5.983759515040829</v>
+        <v>6.016410250208228</v>
       </c>
       <c r="F15">
-        <v>29.29538360004564</v>
+        <v>26.17005178223669</v>
       </c>
       <c r="G15">
-        <v>38.39280444755349</v>
+        <v>34.61306676652017</v>
       </c>
       <c r="H15">
-        <v>7.717056081017421</v>
+        <v>7.581873788349915</v>
       </c>
       <c r="I15">
-        <v>4.708332687256427</v>
+        <v>4.382160684781574</v>
       </c>
       <c r="J15">
-        <v>12.95033438720252</v>
+        <v>11.2774085684669</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.999313324562401</v>
+        <v>13.70884367784836</v>
       </c>
       <c r="M15">
-        <v>13.04264557142971</v>
+        <v>14.21844928634571</v>
       </c>
       <c r="N15">
-        <v>4.740935639637083</v>
+        <v>5.990161808619474</v>
       </c>
       <c r="O15">
-        <v>9.670430479253314</v>
+        <v>13.29790132073082</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.146748941599304</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>9.724065504402999</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.39014941442061</v>
+        <v>15.08828452053864</v>
       </c>
       <c r="C16">
-        <v>8.164508923413432</v>
+        <v>8.451076436697965</v>
       </c>
       <c r="D16">
-        <v>3.141893522658147</v>
+        <v>3.613987939629205</v>
       </c>
       <c r="E16">
-        <v>5.943642952205695</v>
+        <v>5.986756603198566</v>
       </c>
       <c r="F16">
-        <v>29.21374727020021</v>
+        <v>26.45680825897205</v>
       </c>
       <c r="G16">
-        <v>38.25130132078087</v>
+        <v>34.30496457250319</v>
       </c>
       <c r="H16">
-        <v>7.594764357362766</v>
+        <v>7.441148459246989</v>
       </c>
       <c r="I16">
-        <v>4.84116376888892</v>
+        <v>4.492461375090706</v>
       </c>
       <c r="J16">
-        <v>12.97685763367152</v>
+        <v>11.67162226874508</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>5.965485163109925</v>
+        <v>13.93806125246519</v>
       </c>
       <c r="M16">
-        <v>12.64531739361398</v>
+        <v>14.38524704619526</v>
       </c>
       <c r="N16">
-        <v>4.73295552855216</v>
+        <v>5.953158218650461</v>
       </c>
       <c r="O16">
-        <v>9.513708047163329</v>
+        <v>12.90695500451549</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.137267558258797</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>9.552191562202561</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.11255677019122</v>
+        <v>14.79277431247509</v>
       </c>
       <c r="C17">
-        <v>7.929434812135677</v>
+        <v>8.220764372818744</v>
       </c>
       <c r="D17">
-        <v>3.116786285622228</v>
+        <v>3.575169041758819</v>
       </c>
       <c r="E17">
-        <v>5.943968237000672</v>
+        <v>5.982909457656434</v>
       </c>
       <c r="F17">
-        <v>29.89877548663732</v>
+        <v>27.16228290312813</v>
       </c>
       <c r="G17">
-        <v>39.33580468939449</v>
+        <v>35.10131305691799</v>
       </c>
       <c r="H17">
-        <v>7.007502555701516</v>
+        <v>6.831849483741237</v>
       </c>
       <c r="I17">
-        <v>4.911408956388249</v>
+        <v>4.552172870438129</v>
       </c>
       <c r="J17">
-        <v>13.21897359853994</v>
+        <v>12.0233982959366</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>5.923701273925137</v>
+        <v>14.31121409921544</v>
       </c>
       <c r="M17">
-        <v>12.35265190351579</v>
+        <v>14.71349944889481</v>
       </c>
       <c r="N17">
-        <v>4.826891120495057</v>
+        <v>5.896510867360201</v>
       </c>
       <c r="O17">
-        <v>9.530285283605389</v>
+        <v>12.62763185503844</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.246998748251659</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>9.566760189346656</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.98014131808849</v>
+        <v>14.62859029324413</v>
       </c>
       <c r="C18">
-        <v>7.637606699277881</v>
+        <v>7.950681658086063</v>
       </c>
       <c r="D18">
-        <v>3.107437873388591</v>
+        <v>3.592765744347371</v>
       </c>
       <c r="E18">
-        <v>6.040123527488694</v>
+        <v>6.058457919720657</v>
       </c>
       <c r="F18">
-        <v>31.3900007077359</v>
+        <v>28.42103754031621</v>
       </c>
       <c r="G18">
-        <v>41.71225450663827</v>
+        <v>36.94041327586871</v>
       </c>
       <c r="H18">
-        <v>6.022834445178813</v>
+        <v>5.816120046874031</v>
       </c>
       <c r="I18">
-        <v>4.925041634478045</v>
+        <v>4.562702560789181</v>
       </c>
       <c r="J18">
-        <v>13.70054855306823</v>
+        <v>12.46818913984028</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>5.906486653083396</v>
+        <v>14.92430529567496</v>
       </c>
       <c r="M18">
-        <v>12.11931016856035</v>
+        <v>15.27526997531754</v>
       </c>
       <c r="N18">
-        <v>5.033302678181362</v>
+        <v>5.84799720586846</v>
       </c>
       <c r="O18">
-        <v>9.694958868006005</v>
+        <v>12.41763339283071</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>5.486011071269077</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>9.739712868666006</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.96334318694354</v>
+        <v>14.57281441130291</v>
       </c>
       <c r="C19">
-        <v>7.381025728678003</v>
+        <v>7.719677485534987</v>
       </c>
       <c r="D19">
-        <v>3.124180391614255</v>
+        <v>3.660577135525848</v>
       </c>
       <c r="E19">
-        <v>6.286548611976784</v>
+        <v>6.270470611568527</v>
       </c>
       <c r="F19">
-        <v>33.35072806530538</v>
+        <v>29.99510577357337</v>
       </c>
       <c r="G19">
-        <v>44.82160079281519</v>
+        <v>39.34384638822034</v>
       </c>
       <c r="H19">
-        <v>4.967492600132579</v>
+        <v>4.72333799921137</v>
       </c>
       <c r="I19">
-        <v>4.902874068768629</v>
+        <v>4.546660601778007</v>
       </c>
       <c r="J19">
-        <v>14.32237331997905</v>
+        <v>12.96799158638516</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>5.961436341698167</v>
+        <v>15.67701059582236</v>
       </c>
       <c r="M19">
-        <v>11.96576385702448</v>
+        <v>15.97561460920559</v>
       </c>
       <c r="N19">
-        <v>5.344758783197111</v>
+        <v>5.855091472887604</v>
       </c>
       <c r="O19">
-        <v>9.966223022371677</v>
+        <v>12.29264731501017</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>5.841157787836305</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>10.02586363795513</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.29319191967546</v>
+        <v>14.84379600783725</v>
       </c>
       <c r="C20">
-        <v>7.183365898117044</v>
+        <v>7.55248323120738</v>
       </c>
       <c r="D20">
-        <v>3.187208232404846</v>
+        <v>3.839974029343763</v>
       </c>
       <c r="E20">
-        <v>6.898814134117313</v>
+        <v>6.819645733699796</v>
       </c>
       <c r="F20">
-        <v>36.67594497924181</v>
+        <v>32.49834043118926</v>
       </c>
       <c r="G20">
-        <v>50.07448907643921</v>
+        <v>43.43607161957701</v>
       </c>
       <c r="H20">
-        <v>4.015199504227766</v>
+        <v>3.753717466597802</v>
       </c>
       <c r="I20">
-        <v>4.756267185721371</v>
+        <v>4.426536585200818</v>
       </c>
       <c r="J20">
-        <v>15.36149912790396</v>
+        <v>13.61958284413769</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.199703479832172</v>
+        <v>16.80676222492577</v>
       </c>
       <c r="M20">
-        <v>12.03219494589093</v>
+        <v>17.11928994896373</v>
       </c>
       <c r="N20">
-        <v>5.90587154279839</v>
+        <v>6.000276030361349</v>
       </c>
       <c r="O20">
-        <v>10.51299505770135</v>
+        <v>12.40167547393926</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>6.476644217731339</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>10.60462856169031</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.16614422779789</v>
+        <v>15.71273424027743</v>
       </c>
       <c r="C21">
-        <v>7.452311982644069</v>
+        <v>7.866700938713267</v>
       </c>
       <c r="D21">
-        <v>3.306269076306129</v>
+        <v>4.147789008784614</v>
       </c>
       <c r="E21">
-        <v>7.120463759340947</v>
+        <v>7.031729251982396</v>
       </c>
       <c r="F21">
-        <v>37.87886055786911</v>
+        <v>32.66513939672004</v>
       </c>
       <c r="G21">
-        <v>51.95748486726164</v>
+        <v>45.51856916106073</v>
       </c>
       <c r="H21">
-        <v>3.701446535235408</v>
+        <v>3.483646818669869</v>
       </c>
       <c r="I21">
-        <v>4.499319803618585</v>
+        <v>4.217961050349529</v>
       </c>
       <c r="J21">
-        <v>15.6684728402675</v>
+        <v>12.81022137465138</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.300259598594398</v>
+        <v>16.58583782656046</v>
       </c>
       <c r="M21">
-        <v>12.7150136316864</v>
+        <v>17.19323889978667</v>
       </c>
       <c r="N21">
-        <v>6.099207313551429</v>
+        <v>6.057454149555652</v>
       </c>
       <c r="O21">
-        <v>10.94321375122294</v>
+        <v>13.08014405933512</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>6.704662886817471</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>11.06954761084416</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.71842216329318</v>
+        <v>16.26349728926085</v>
       </c>
       <c r="C22">
-        <v>7.622683883393861</v>
+        <v>8.057301485995003</v>
       </c>
       <c r="D22">
-        <v>3.372494751718762</v>
+        <v>4.340010870462746</v>
       </c>
       <c r="E22">
-        <v>7.234460397151782</v>
+        <v>7.144631211883899</v>
       </c>
       <c r="F22">
-        <v>38.57730649783361</v>
+        <v>32.67829135813722</v>
       </c>
       <c r="G22">
-        <v>53.0550039854469</v>
+        <v>46.86828861841295</v>
       </c>
       <c r="H22">
-        <v>3.510667295744511</v>
+        <v>3.320677668936509</v>
       </c>
       <c r="I22">
-        <v>4.329041135206393</v>
+        <v>4.076546516683287</v>
       </c>
       <c r="J22">
-        <v>15.84567683962249</v>
+        <v>12.245855852477</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.354386119464143</v>
+        <v>16.40245640561687</v>
       </c>
       <c r="M22">
-        <v>13.14496661043987</v>
+        <v>17.20592399028143</v>
       </c>
       <c r="N22">
-        <v>6.192132191262861</v>
+        <v>6.086454357241788</v>
       </c>
       <c r="O22">
-        <v>11.19595465787853</v>
+        <v>13.50481588801915</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>6.818086607887897</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>11.3435372884235</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.43260343516049</v>
+        <v>15.97584250517024</v>
       </c>
       <c r="C23">
-        <v>7.518750715612328</v>
+        <v>7.94549050799961</v>
       </c>
       <c r="D23">
-        <v>3.32797074380483</v>
+        <v>4.213632670292502</v>
       </c>
       <c r="E23">
-        <v>7.176878040728453</v>
+        <v>7.084335712099</v>
       </c>
       <c r="F23">
-        <v>38.27173827665396</v>
+        <v>32.79755873417169</v>
       </c>
       <c r="G23">
-        <v>52.58415305876111</v>
+        <v>46.13767270080078</v>
       </c>
       <c r="H23">
-        <v>3.610549904073287</v>
+        <v>3.404805231526736</v>
       </c>
       <c r="I23">
-        <v>4.410347231521833</v>
+        <v>4.139835925203053</v>
       </c>
       <c r="J23">
-        <v>15.77490409056225</v>
+        <v>12.66529266237579</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.329106415284756</v>
+        <v>16.56682201260989</v>
       </c>
       <c r="M23">
-        <v>12.91213445977849</v>
+        <v>17.26696939015187</v>
       </c>
       <c r="N23">
-        <v>6.136585469394556</v>
+        <v>6.075137552340795</v>
       </c>
       <c r="O23">
-        <v>11.0594306933697</v>
+        <v>13.27805670544456</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>6.751364638640969</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>11.19441588829985</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.29442192297711</v>
+        <v>14.83979445625999</v>
       </c>
       <c r="C24">
-        <v>7.139541770742901</v>
+        <v>7.495476832850952</v>
       </c>
       <c r="D24">
-        <v>3.172130916500469</v>
+        <v>3.830804531454954</v>
       </c>
       <c r="E24">
-        <v>6.949531233821986</v>
+        <v>6.865513475331299</v>
       </c>
       <c r="F24">
-        <v>36.99252294138063</v>
+        <v>32.76267017600178</v>
       </c>
       <c r="G24">
-        <v>50.58779265755206</v>
+        <v>43.84474204883556</v>
       </c>
       <c r="H24">
-        <v>3.998763385268719</v>
+        <v>3.737973904331045</v>
       </c>
       <c r="I24">
-        <v>4.74027457619315</v>
+        <v>4.408594884586722</v>
       </c>
       <c r="J24">
-        <v>15.46873338903974</v>
+        <v>13.71313785215124</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.2253062745886</v>
+        <v>16.95123755442197</v>
       </c>
       <c r="M24">
-        <v>12.00200814232829</v>
+        <v>17.25236564077813</v>
       </c>
       <c r="N24">
-        <v>5.933615354363631</v>
+        <v>6.017881355416295</v>
       </c>
       <c r="O24">
-        <v>10.5338458908863</v>
+        <v>12.37508242431668</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>6.510074539083115</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>10.62725729452048</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.97211630055572</v>
+        <v>13.53699100093083</v>
       </c>
       <c r="C25">
-        <v>6.715143599035624</v>
+        <v>6.882857368737307</v>
       </c>
       <c r="D25">
-        <v>3.00006383284724</v>
+        <v>3.581115825040664</v>
       </c>
       <c r="E25">
-        <v>6.695131426962239</v>
+        <v>6.649372329253048</v>
       </c>
       <c r="F25">
-        <v>35.58662866782136</v>
+        <v>31.93924647015676</v>
       </c>
       <c r="G25">
-        <v>48.37790701001772</v>
+        <v>42.52107098985064</v>
       </c>
       <c r="H25">
-        <v>4.434120025399378</v>
+        <v>4.128332229344446</v>
       </c>
       <c r="I25">
-        <v>5.111827334411331</v>
+        <v>4.727555211660789</v>
       </c>
       <c r="J25">
-        <v>15.14035589347967</v>
+        <v>13.60465433743175</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.108113880579431</v>
+        <v>16.96652251065614</v>
       </c>
       <c r="M25">
-        <v>10.9421244525077</v>
+        <v>16.88565636346244</v>
       </c>
       <c r="N25">
-        <v>5.710113330793159</v>
+        <v>5.932246386383637</v>
       </c>
       <c r="O25">
-        <v>9.943294064759602</v>
+        <v>11.2888772158776</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>6.255055873168862</v>
       </c>
       <c r="Q25">
+        <v>10.00648524634301</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
